--- a/GST Update/Consignor/GST.xlsx
+++ b/GST Update/Consignor/GST.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Omkar Kadam_selenium\GST Update\Consignor\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView windowWidth="19635" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$24</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
   <si>
     <t>UID</t>
   </si>
@@ -30,6 +41,9 @@
     <t>GST</t>
   </si>
   <si>
+    <t>Execution Time 1</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -42,10 +56,13 @@
     <t>07AAACK7300E1Z1</t>
   </si>
   <si>
+    <t>2025-03-12 11:47:13</t>
+  </si>
+  <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>2025-03-11 17:34:00</t>
+    <t>2025-03-12 12:04:13</t>
   </si>
   <si>
     <t>dd 30</t>
@@ -54,7 +71,10 @@
     <t>27AABCI7552F2ZJ</t>
   </si>
   <si>
-    <t>2025-03-11 17:34:16</t>
+    <t>2025-03-12 11:47:22</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:04:21</t>
   </si>
   <si>
     <t>dd 40</t>
@@ -63,7 +83,10 @@
     <t>36AAKFB6990Q1ZI</t>
   </si>
   <si>
-    <t>2025-03-11 17:34:32</t>
+    <t>2025-03-12 11:47:30</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:04:30</t>
   </si>
   <si>
     <t>dd 41</t>
@@ -72,7 +95,10 @@
     <t>27AAACH1004N1ZU</t>
   </si>
   <si>
-    <t>2025-03-11 17:34:49</t>
+    <t>2025-03-12 11:47:40</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:04:38</t>
   </si>
   <si>
     <t>dd 42</t>
@@ -81,7 +107,10 @@
     <t>27AAACL0140PBZ9</t>
   </si>
   <si>
-    <t>2025-03-11 17:35:06</t>
+    <t>2025-03-12 11:47:48</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:04:46</t>
   </si>
   <si>
     <t>dd 43</t>
@@ -90,7 +119,10 @@
     <t>27AAACB9318D1ZW</t>
   </si>
   <si>
-    <t>2025-03-11 17:02:05</t>
+    <t>2025-03-12 11:47:57</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:04:55</t>
   </si>
   <si>
     <t>dd 44</t>
@@ -99,7 +131,10 @@
     <t>27AADCS0472N1Z2</t>
   </si>
   <si>
-    <t>2025-03-11 17:02:21</t>
+    <t>2025-03-12 11:48:06</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:05:06</t>
   </si>
   <si>
     <t>dd 45</t>
@@ -108,7 +143,10 @@
     <t>27AAACJ4323N1ZG</t>
   </si>
   <si>
-    <t>2025-03-11 17:02:37</t>
+    <t>2025-03-12 11:48:15</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:05:16</t>
   </si>
   <si>
     <t>dd 46</t>
@@ -117,7 +155,10 @@
     <t>27AABCG3365J1ZI</t>
   </si>
   <si>
-    <t>2025-03-11 17:02:53</t>
+    <t>2025-03-12 11:48:24</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:05:24</t>
   </si>
   <si>
     <t>dd 47</t>
@@ -126,7 +167,10 @@
     <t>23AABCP9487A1ZH</t>
   </si>
   <si>
-    <t>2025-03-11 17:03:09</t>
+    <t>2025-03-12 11:48:32</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:05:34</t>
   </si>
   <si>
     <t>dd 48</t>
@@ -135,7 +179,10 @@
     <t>27AAACM3025E1ZZ</t>
   </si>
   <si>
-    <t>2025-03-11 17:03:25</t>
+    <t>2025-03-12 11:48:42</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:05:42</t>
   </si>
   <si>
     <t>dd 49</t>
@@ -144,7 +191,10 @@
     <t>27AAACI4798L1ZY</t>
   </si>
   <si>
-    <t>2025-03-11 17:03:41</t>
+    <t>2025-03-12 11:48:50</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:05:50</t>
   </si>
   <si>
     <t>dd 50</t>
@@ -153,7 +203,10 @@
     <t>27AAACW0387R2ZM</t>
   </si>
   <si>
-    <t>2025-03-11 17:03:57</t>
+    <t>2025-03-12 11:48:59</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:05:59</t>
   </si>
   <si>
     <t>dd 51</t>
@@ -162,7 +215,10 @@
     <t>27AAACH1645P1ZB</t>
   </si>
   <si>
-    <t>2025-03-11 17:04:13</t>
+    <t>2025-03-12 11:49:08</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:06:07</t>
   </si>
   <si>
     <t>dd 52</t>
@@ -171,7 +227,10 @@
     <t>27AAACM3484F1ZI</t>
   </si>
   <si>
-    <t>2025-03-11 17:04:29</t>
+    <t>2025-03-12 11:49:16</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:06:17</t>
   </si>
   <si>
     <t>dd 53</t>
@@ -180,7 +239,10 @@
     <t>27AABCM4573E2ZI</t>
   </si>
   <si>
-    <t>2025-03-11 17:04:45</t>
+    <t>2025-03-12 11:49:24</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:06:26</t>
   </si>
   <si>
     <t>dd 54</t>
@@ -189,7 +251,10 @@
     <t>27AAACD3312M8ZM</t>
   </si>
   <si>
-    <t>2025-03-11 17:05:01</t>
+    <t>2025-03-12 11:49:34</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:06:35</t>
   </si>
   <si>
     <t>dd 55</t>
@@ -198,7 +263,10 @@
     <t>27AAACL1681P3Z1</t>
   </si>
   <si>
-    <t>2025-03-11 17:05:17</t>
+    <t>2025-03-12 11:49:42</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:06:45</t>
   </si>
   <si>
     <t>dd 56</t>
@@ -207,7 +275,10 @@
     <t>27AAACI4403L1ZO</t>
   </si>
   <si>
-    <t>2025-03-11 17:05:33</t>
+    <t>2025-03-12 11:49:52</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:06:53</t>
   </si>
   <si>
     <t>dd 57</t>
@@ -216,7 +287,10 @@
     <t>06AAACM5586C1ZL</t>
   </si>
   <si>
-    <t>2025-03-11 17:05:48</t>
+    <t>2025-03-12 11:50:00</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:07:02</t>
   </si>
   <si>
     <t>dd 58</t>
@@ -225,7 +299,10 @@
     <t>29AACCG0527D1Z0</t>
   </si>
   <si>
-    <t>2025-03-11 17:06:04</t>
+    <t>2025-03-12 11:50:09</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:07:11</t>
   </si>
   <si>
     <t>dd 59</t>
@@ -234,7 +311,10 @@
     <t>29AABCA1906H1ZY</t>
   </si>
   <si>
-    <t>2025-03-11 17:06:19</t>
+    <t>2025-03-12 11:50:18</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:07:19</t>
   </si>
   <si>
     <t>dd 60</t>
@@ -243,36 +323,384 @@
     <t>29AADCH5900Q1Z4</t>
   </si>
   <si>
-    <t>2025-03-11 17:06:35</t>
+    <t>2025-03-12 11:50:27</t>
+  </si>
+  <si>
+    <t>2025-03-12 12:07:28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -295,9 +723,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -305,17 +975,61 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -600,28 +1314,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="19.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,399 +1348,472 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/GST Update/Consignor/GST.xlsx
+++ b/GST Update/Consignor/GST.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$24</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="171">
   <si>
     <t>UID</t>
   </si>
@@ -44,10 +41,19 @@
     <t>Execution Time 1</t>
   </si>
   <si>
+    <t>Execution Time 2</t>
+  </si>
+  <si>
+    <t>Execution Time 3</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Execution Time</t>
+    <t>Execution Time 4</t>
+  </si>
+  <si>
+    <t>Execution Time 5</t>
   </si>
   <si>
     <t>dd 5</t>
@@ -59,10 +65,19 @@
     <t>2025-03-12 11:47:13</t>
   </si>
   <si>
+    <t>2025-03-12 12:04:13</t>
+  </si>
+  <si>
+    <t>2025-03-12 || 12:18:56</t>
+  </si>
+  <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>2025-03-12 12:04:13</t>
+    <t>2025-03-12  12:32:26</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:51:29</t>
   </si>
   <si>
     <t>dd 30</t>
@@ -77,6 +92,15 @@
     <t>2025-03-12 12:04:21</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:19:05</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:32:35</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:51:41</t>
+  </si>
+  <si>
     <t>dd 40</t>
   </si>
   <si>
@@ -89,6 +113,15 @@
     <t>2025-03-12 12:04:30</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:19:19</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:32:43</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:51:49</t>
+  </si>
+  <si>
     <t>dd 41</t>
   </si>
   <si>
@@ -101,6 +134,15 @@
     <t>2025-03-12 12:04:38</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:19:32</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:32:51</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:51:58</t>
+  </si>
+  <si>
     <t>dd 42</t>
   </si>
   <si>
@@ -113,6 +155,15 @@
     <t>2025-03-12 12:04:46</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:19:41</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:33:01</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:52:07</t>
+  </si>
+  <si>
     <t>dd 43</t>
   </si>
   <si>
@@ -125,6 +176,15 @@
     <t>2025-03-12 12:04:55</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:19:50</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:33:10</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:52:15</t>
+  </si>
+  <si>
     <t>dd 44</t>
   </si>
   <si>
@@ -137,6 +197,15 @@
     <t>2025-03-12 12:05:06</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:19:58</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:33:18</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:52:24</t>
+  </si>
+  <si>
     <t>dd 45</t>
   </si>
   <si>
@@ -149,6 +218,15 @@
     <t>2025-03-12 12:05:16</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:20:07</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:33:27</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:52:32</t>
+  </si>
+  <si>
     <t>dd 46</t>
   </si>
   <si>
@@ -161,6 +239,15 @@
     <t>2025-03-12 12:05:24</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:20:15</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:33:35</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:52:41</t>
+  </si>
+  <si>
     <t>dd 47</t>
   </si>
   <si>
@@ -173,6 +260,15 @@
     <t>2025-03-12 12:05:34</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:20:24</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:33:44</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:52:49</t>
+  </si>
+  <si>
     <t>dd 48</t>
   </si>
   <si>
@@ -185,6 +281,15 @@
     <t>2025-03-12 12:05:42</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:20:33</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:33:52</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:52:58</t>
+  </si>
+  <si>
     <t>dd 49</t>
   </si>
   <si>
@@ -197,6 +302,15 @@
     <t>2025-03-12 12:05:50</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:20:42</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:34:02</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:53:07</t>
+  </si>
+  <si>
     <t>dd 50</t>
   </si>
   <si>
@@ -209,6 +323,15 @@
     <t>2025-03-12 12:05:59</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:20:52</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:34:11</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:53:16</t>
+  </si>
+  <si>
     <t>dd 51</t>
   </si>
   <si>
@@ -221,6 +344,15 @@
     <t>2025-03-12 12:06:07</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:21:18</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:34:20</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:53:24</t>
+  </si>
+  <si>
     <t>dd 52</t>
   </si>
   <si>
@@ -233,6 +365,15 @@
     <t>2025-03-12 12:06:17</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:21:28</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:34:29</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:53:33</t>
+  </si>
+  <si>
     <t>dd 53</t>
   </si>
   <si>
@@ -245,6 +386,15 @@
     <t>2025-03-12 12:06:26</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:21:39</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:34:38</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:53:41</t>
+  </si>
+  <si>
     <t>dd 54</t>
   </si>
   <si>
@@ -257,6 +407,15 @@
     <t>2025-03-12 12:06:35</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:21:48</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:34:47</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:53:50</t>
+  </si>
+  <si>
     <t>dd 55</t>
   </si>
   <si>
@@ -269,6 +428,15 @@
     <t>2025-03-12 12:06:45</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:21:57</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:34:56</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:53:58</t>
+  </si>
+  <si>
     <t>dd 56</t>
   </si>
   <si>
@@ -281,6 +449,15 @@
     <t>2025-03-12 12:06:53</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:22:06</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:35:06</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:54:07</t>
+  </si>
+  <si>
     <t>dd 57</t>
   </si>
   <si>
@@ -293,6 +470,15 @@
     <t>2025-03-12 12:07:02</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:22:14</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:35:15</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:54:17</t>
+  </si>
+  <si>
     <t>dd 58</t>
   </si>
   <si>
@@ -305,6 +491,15 @@
     <t>2025-03-12 12:07:11</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:22:22</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:35:26</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:54:25</t>
+  </si>
+  <si>
     <t>dd 59</t>
   </si>
   <si>
@@ -317,6 +512,15 @@
     <t>2025-03-12 12:07:19</t>
   </si>
   <si>
+    <t>2025-03-12 || 12:22:31</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:35:35</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:54:34</t>
+  </si>
+  <si>
     <t>dd 60</t>
   </si>
   <si>
@@ -327,6 +531,15 @@
   </si>
   <si>
     <t>2025-03-12 12:07:28</t>
+  </si>
+  <si>
+    <t>2025-03-12 || 12:22:39</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:35:44</t>
+  </si>
+  <si>
+    <t>2025-03-12  12:54:43</t>
   </si>
 </sst>
 </file>
@@ -1320,19 +1533,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="19.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="19.5714285714286" customWidth="1"/>
+    <col min="8" max="9" width="20.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,465 +1563,681 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>91</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>98</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>105</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>119</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>126</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>133</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>140</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>147</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>154</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>161</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
+        <v>168</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>169</v>
+      </c>
+      <c r="I24" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
